--- a/configuration.xlsx
+++ b/configuration.xlsx
@@ -525,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:C33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I10" activeCellId="1" sqref="E11 I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -695,10 +695,10 @@
         <v>17</v>
       </c>
       <c r="D10">
-        <v>64</v>
+        <v>4096</v>
       </c>
       <c r="E10">
-        <v>256</v>
+        <v>16384</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
@@ -712,10 +712,10 @@
         <v>17</v>
       </c>
       <c r="D11">
-        <v>64</v>
+        <v>4096</v>
       </c>
       <c r="E11">
-        <v>256</v>
+        <v>16384</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -1067,6 +1067,12 @@
       </c>
       <c r="C32" t="s">
         <v>17</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.4">

--- a/configuration.xlsx
+++ b/configuration.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="47">
   <si>
     <t>Division</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -189,7 +189,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Micro Pattern and Reserved</t>
+    <t>Micro Pattern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reserved</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -525,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I10" activeCellId="1" sqref="E11 I10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1072,16 +1080,30 @@
         <v>0</v>
       </c>
       <c r="E32">
+        <v>66542</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="E33">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
     </row>
   </sheetData>

--- a/configuration.xlsx
+++ b/configuration.xlsx
@@ -533,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>66542</v>
+        <v>43384</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.4">

--- a/configuration.xlsx
+++ b/configuration.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="49">
   <si>
     <t>Division</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -198,6 +198,14 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLOCK1 HEADER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The count of Opcode and Data Set (Data : 32bit) : r</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -533,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -935,7 +943,7 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
         <v>17</v>
@@ -966,7 +974,7 @@
     </row>
     <row r="26" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
         <v>32</v>
@@ -1080,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>43384</v>
+        <v>41644</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.4">

--- a/configuration.xlsx
+++ b/configuration.xlsx
@@ -541,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>41644</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
